--- a/analysis/queryResults/FrequentItemsets_protocolsEnabled20022018.xlsx
+++ b/analysis/queryResults/FrequentItemsets_protocolsEnabled20022018.xlsx
@@ -4093,11 +4093,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="995110560"/>
-        <c:axId val="995121984"/>
+        <c:axId val="-1845143632"/>
+        <c:axId val="-1845143088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="995110560"/>
+        <c:axId val="-1845143632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4140,7 +4140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="995121984"/>
+        <c:crossAx val="-1845143088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4148,7 +4148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="995121984"/>
+        <c:axId val="-1845143088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,7 +4199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="995110560"/>
+        <c:crossAx val="-1845143632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4243,7 +4243,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4283,7 +4283,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>SSL2 and SSL3 Enabled And Rating F</a:t>
+              <a:t>SSL2 and SSL3 Enabled and</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> R</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>ating F</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -4442,11 +4450,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1000312928"/>
-        <c:axId val="1000307488"/>
+        <c:axId val="-1845304848"/>
+        <c:axId val="-1415061984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1000312928"/>
+        <c:axId val="-1845304848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4489,7 +4497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1000307488"/>
+        <c:crossAx val="-1415061984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4497,7 +4505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1000307488"/>
+        <c:axId val="-1415061984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4548,7 +4556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1000312928"/>
+        <c:crossAx val="-1845304848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4592,7 +4600,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4822,11 +4830,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1000304224"/>
-        <c:axId val="1000303136"/>
+        <c:axId val="-1415060352"/>
+        <c:axId val="-1415066336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1000304224"/>
+        <c:axId val="-1415060352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4869,7 +4877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1000303136"/>
+        <c:crossAx val="-1415066336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4877,7 +4885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1000303136"/>
+        <c:axId val="-1415066336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4928,7 +4936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1000304224"/>
+        <c:crossAx val="-1415060352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4972,7 +4980,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5148,11 +5156,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1000313472"/>
-        <c:axId val="1000302048"/>
+        <c:axId val="-1415065792"/>
+        <c:axId val="-1415065248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1000313472"/>
+        <c:axId val="-1415065792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5195,7 +5203,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1000302048"/>
+        <c:crossAx val="-1415065248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5203,7 +5211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1000302048"/>
+        <c:axId val="-1415065248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5254,7 +5262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1000313472"/>
+        <c:crossAx val="-1415065792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5298,7 +5306,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5533,11 +5541,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="995117088"/>
-        <c:axId val="995118176"/>
+        <c:axId val="-1415063072"/>
+        <c:axId val="-1415067424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="995117088"/>
+        <c:axId val="-1415063072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5580,7 +5588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="995118176"/>
+        <c:crossAx val="-1415067424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5588,7 +5596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="995118176"/>
+        <c:axId val="-1415067424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5639,7 +5647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="995117088"/>
+        <c:crossAx val="-1415063072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5683,7 +5691,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5894,11 +5902,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1220383824"/>
-        <c:axId val="1220378928"/>
+        <c:axId val="-1377961936"/>
+        <c:axId val="-1377963024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1220383824"/>
+        <c:axId val="-1377961936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5941,7 +5949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1220378928"/>
+        <c:crossAx val="-1377963024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5949,7 +5957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1220378928"/>
+        <c:axId val="-1377963024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6000,7 +6008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1220383824"/>
+        <c:crossAx val="-1377961936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6044,7 +6052,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6243,11 +6251,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1220374032"/>
-        <c:axId val="1220380560"/>
+        <c:axId val="-1377961392"/>
+        <c:axId val="-1377957584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1220374032"/>
+        <c:axId val="-1377961392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6290,7 +6298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1220380560"/>
+        <c:crossAx val="-1377957584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6298,7 +6306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1220380560"/>
+        <c:axId val="-1377957584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6350,7 +6358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1220374032"/>
+        <c:crossAx val="-1377961392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6394,7 +6402,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -10680,7 +10688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1090"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C85" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
